--- a/project/uploads/93/split_output/4模具存放、限位.xlsx
+++ b/project/uploads/93/split_output/4模具存放、限位.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\web-program\project\uploads\93\split_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\temp\webprogram\project\uploads\93\split_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD70BC6F-2625-4122-8700-A8CE8B18A697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7439F4AE-E102-4633-8C1B-19150D13536D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{F3C504D3-F657-45D1-A19A-4EA8D9A812A3}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="14400" windowHeight="8170" xr2:uid="{83F809CF-6722-41B2-84D0-53D11469D28E}"/>
   </bookViews>
   <sheets>
     <sheet name="4模具存放、限位" sheetId="1" r:id="rId1"/>
@@ -2268,7 +2268,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{967B07E1-6EA1-45AC-9DCB-7AEE15B68732}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCDD5E79-38DB-4735-A495-1990381ADD63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2285,8 +2285,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1426845" y="424815"/>
-          <a:ext cx="1209675" cy="1245870"/>
+          <a:off x="1425575" y="434975"/>
+          <a:ext cx="1209675" cy="1276350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2320,7 +2320,7 @@
         <xdr:cNvPr id="3" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EA97804-E5AD-43B9-BBD3-8E4D0E5AD7EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDD7712B-41ED-47BA-B1D7-61210999807B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2337,8 +2337,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3665220" y="577215"/>
-          <a:ext cx="1190625" cy="962025"/>
+          <a:off x="3663950" y="587375"/>
+          <a:ext cx="1190625" cy="987425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2372,7 +2372,7 @@
         <xdr:cNvPr id="4" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA5F5190-3A31-4D5E-80E2-E312E0B5CE23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B7E2C38-7B9C-4E2C-8A5B-727F342EEBCA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2389,8 +2389,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5894070" y="539115"/>
-          <a:ext cx="1209675" cy="914400"/>
+          <a:off x="5892800" y="549275"/>
+          <a:ext cx="1209675" cy="939800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2424,7 +2424,7 @@
         <xdr:cNvPr id="5" name="CheckBox1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01DF9009-FF5D-437E-8E52-45232AEE4F0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46CA5062-300B-49D9-AEBB-A8B8DB5D0D07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2447,8 +2447,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1722120" y="1727835"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1720850" y="1768475"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2489,7 +2489,7 @@
         <xdr:cNvPr id="6" name="CheckBox2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF058082-4F8B-49E5-A227-B471A0E184D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E1B2047-5629-4D74-9A2A-DD2C1F3CFB4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2512,8 +2512,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6254750" y="1736725"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="6253480" y="1777365"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2554,7 +2554,7 @@
         <xdr:cNvPr id="7" name="CheckBox3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32D39864-9E33-4D8C-B6BD-D1D541D7FA96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49FCDD0-017C-4AB8-A0D7-E44FDC46EF60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2577,8 +2577,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4072255" y="1744345"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="4070985" y="1784985"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2619,7 +2619,7 @@
         <xdr:cNvPr id="8" name="CheckBox10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4256EBB2-2FC5-4CE4-A953-3588B40D5FA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C778C0C-1424-4031-92D5-54D8DD606983}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2642,8 +2642,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1464945" y="15632430"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1463675" y="15944850"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2684,7 +2684,7 @@
         <xdr:cNvPr id="9" name="CheckBox12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA47E6F5-EE7D-45EB-87CE-CD23A171B61E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DC88D9E-4849-4EDF-8520-AD28E152C073}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2707,8 +2707,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4846320" y="15632430"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="4845050" y="15944850"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2749,7 +2749,7 @@
         <xdr:cNvPr id="10" name="CheckBox13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A44A70DC-6CB8-474D-8341-F324C6646BBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55968B60-014B-4BD2-B433-5C9474900C39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2772,8 +2772,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3436620" y="15632430"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="3435350" y="15944850"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2814,7 +2814,7 @@
         <xdr:cNvPr id="11" name="CheckBox16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0DEF23B-DDFE-401B-BDD5-D389C4FB1B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{893F0C74-9B20-4146-A19D-4F95BF7B267E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2837,8 +2837,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1512570" y="23932515"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1511300" y="24450675"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2879,7 +2879,7 @@
         <xdr:cNvPr id="12" name="CheckBox15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{277C849F-5FC5-4F06-B4E1-1B587E7FB65F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECA4C082-0F67-4109-BC89-D354BF52042B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2902,8 +2902,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3046095" y="23922990"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="3044825" y="24441150"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2944,7 +2944,7 @@
         <xdr:cNvPr id="13" name="图片 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FAC318F-F351-47F2-893F-AAB478CEE284}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DB3A9B5-FC52-48A5-A79D-E90FBE85FB81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2960,8 +2960,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2435225" y="24559260"/>
-          <a:ext cx="1316355" cy="2938780"/>
+          <a:off x="2433955" y="25092660"/>
+          <a:ext cx="1316355" cy="3014980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2992,7 +2992,7 @@
         <xdr:cNvPr id="14" name="图片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C57E834B-A07F-45E0-BA4F-F116D7E7B024}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C914096-245E-4262-80B7-31D482001A29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3008,8 +3008,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1537970" y="3682365"/>
-          <a:ext cx="2741930" cy="2221230"/>
+          <a:off x="1536700" y="3763645"/>
+          <a:ext cx="2741930" cy="2277110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3040,7 +3040,7 @@
         <xdr:cNvPr id="15" name="Text Box 28529">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F064A1-8913-4315-B5C3-A051A669E77E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAA68C30-12C9-4A56-8302-57189D2C8837}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3050,8 +3050,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4872990" y="13417550"/>
-          <a:ext cx="2465070" cy="254000"/>
+          <a:off x="4871720" y="13671550"/>
+          <a:ext cx="2465070" cy="259080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3204,7 +3204,7 @@
         <xdr:cNvPr id="16" name="组合 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3304FEB4-1DE5-49EB-BA4E-2076BAB6847F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E855DDD-7274-48F2-8833-07C3CE9216A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3212,8 +3212,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5091458" y="16796495"/>
-          <a:ext cx="2134235" cy="1834129"/>
+          <a:off x="5090353" y="17164243"/>
+          <a:ext cx="2134235" cy="1883824"/>
           <a:chOff x="7543800" y="2895600"/>
           <a:chExt cx="3771900" cy="3543300"/>
         </a:xfrm>
@@ -3223,7 +3223,7 @@
           <xdr:cNvPr id="17" name="图片 42">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D0FB4C6-2280-8A63-893B-764752EA4F51}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{280ED5F8-410D-CECB-5D88-180C7813FE86}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3256,7 +3256,7 @@
           <xdr:cNvPr id="18" name="矩形 43">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A031C2C-D322-4BA8-F0D3-17B18FA35AE3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B1C2B6-0B73-8E45-787D-8B554B1D141D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3405,7 +3405,7 @@
           <xdr:cNvPr id="19" name="矩形 44">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD3334C-8900-F95E-89D0-CD2ADF6981C8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6F6800D-62F2-E809-F0BE-D7701FBF431A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3570,7 +3570,7 @@
         <xdr:cNvPr id="20" name="矩形 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95D70DDC-0360-4EA6-A86A-806EBA3FABA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D5696C8-5CD8-4471-B0B3-F6D994F75242}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3578,8 +3578,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789805" y="18748375"/>
-          <a:ext cx="2611755" cy="813435"/>
+          <a:off x="4788535" y="19136995"/>
+          <a:ext cx="2611755" cy="833755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3735,7 +3735,7 @@
         <xdr:cNvPr id="21" name="图片 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93EC54F8-517E-471F-977C-EEF6E91C8784}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6139CB4D-0626-4E05-A146-7B74A292E2A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3751,8 +3751,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1553845" y="20426045"/>
-          <a:ext cx="4690110" cy="2266950"/>
+          <a:off x="1552575" y="20860385"/>
+          <a:ext cx="4690110" cy="2322830"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3783,7 +3783,7 @@
         <xdr:cNvPr id="22" name="文本框 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EBF1EEC-4B6B-4621-9E1E-555A9DB2481B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9C40E72-D14E-4E71-8D06-C8E178B9F36D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3791,8 +3791,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1313815" y="19834860"/>
-          <a:ext cx="6172200" cy="626110"/>
+          <a:off x="1312545" y="20253960"/>
+          <a:ext cx="6172200" cy="641350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3944,7 +3944,7 @@
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C57B20D5-56D8-4CF6-8355-D9FE4882A5BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE703833-3F27-4FD5-BBCB-6A2AF9612054}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3960,8 +3960,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4977130" y="3933825"/>
-          <a:ext cx="2077085" cy="1564640"/>
+          <a:off x="4975860" y="4020185"/>
+          <a:ext cx="2077085" cy="1605280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3992,7 +3992,7 @@
         <xdr:cNvPr id="24" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64A23A32-DA96-46DD-84F7-19EEE0DC0299}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF58412A-8DCF-4823-B9C5-D9434F246D07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4008,8 +4008,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1369695" y="11232515"/>
-          <a:ext cx="3001645" cy="1572260"/>
+          <a:off x="1368425" y="11430635"/>
+          <a:ext cx="3001645" cy="1612900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4040,7 +4040,7 @@
         <xdr:cNvPr id="25" name="组合 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE819003-D76C-4A27-9485-B38CB1E7BA8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA1B1B93-8F22-4C38-9751-D35B22F0C7C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4048,8 +4048,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4897148" y="11294414"/>
-          <a:ext cx="2533015" cy="2062756"/>
+          <a:off x="4896043" y="11513075"/>
+          <a:ext cx="2533015" cy="2117973"/>
           <a:chOff x="152400" y="2431256"/>
           <a:chExt cx="6345447" cy="4738687"/>
         </a:xfrm>
@@ -4059,7 +4059,7 @@
           <xdr:cNvPr id="26" name="图片 72">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BD4D701-F810-B724-E139-38E4A919ADB3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBAB436C-5F74-866A-D814-B50427699E65}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4092,7 +4092,7 @@
           <xdr:cNvPr id="27" name="直接箭头连接符 73">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC75C63F-E1E8-41A1-C7F8-CBA89409841D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D384C6C-96BE-A043-D7D2-949F880DF12D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4134,7 +4134,7 @@
           <xdr:cNvPr id="28" name="矩形 74">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA88ABC8-A0EF-3782-3C34-8C8DA4D6D0EB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7145DD1-3D5D-AB1C-7644-99719219C9DF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4277,7 +4277,7 @@
           <xdr:cNvPr id="29" name="直接箭头连接符 75">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F4406E8-9CA0-64FF-2381-A6C63807295D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{618B2FAB-8A2A-006A-00C8-4E8F928BA4AF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4319,7 +4319,7 @@
           <xdr:cNvPr id="30" name="直接箭头连接符 76">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD52101E-0FF3-3C76-8573-1D150ED1C73B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB6B5C1B-A33B-8187-42FD-A0F1FF73A00B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4361,7 +4361,7 @@
           <xdr:cNvPr id="31" name="矩形 77">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31A56CAA-1B4E-8586-84D4-6B2B0B0F4C81}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92CBDA81-4D2D-C22F-6844-82D9306BE974}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4504,7 +4504,7 @@
           <xdr:cNvPr id="32" name="矩形 78">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13850438-0AA2-7D99-3061-DC99178B1422}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{241F324D-2031-FFE3-AF34-542F73DD45CD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4663,7 +4663,7 @@
         <xdr:cNvPr id="33" name="图片 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57A7DF57-2C3C-46AB-9C3D-09D8876B93D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F5A98EC-C140-48AD-BE12-C1EA9C7BCF52}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4679,8 +4679,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1303020" y="12977495"/>
-          <a:ext cx="3380740" cy="1710055"/>
+          <a:off x="1301750" y="13221335"/>
+          <a:ext cx="3380740" cy="1750695"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4702,7 +4702,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>468189</xdr:colOff>
+      <xdr:colOff>479232</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
@@ -4711,7 +4711,7 @@
         <xdr:cNvPr id="34" name="图片 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42FFF7F8-F366-4A9A-8F59-5C436D6165CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20BE66FC-E1C6-432D-9BE1-A67FB34A121E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4727,8 +4727,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8146415" y="1047750"/>
-          <a:ext cx="2040255" cy="2335530"/>
+          <a:off x="8143875" y="1073150"/>
+          <a:ext cx="2038985" cy="2386330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4750,7 +4750,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>212062</xdr:colOff>
+      <xdr:colOff>228628</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>51435</xdr:rowOff>
     </xdr:to>
@@ -4759,7 +4759,7 @@
         <xdr:cNvPr id="35" name="图片 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F574DC60-790E-4092-9A86-ABF3B30C0A78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA0F30ED-6AD0-478B-ABBF-F121F8A2D601}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4775,8 +4775,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10310495" y="466725"/>
-          <a:ext cx="2429510" cy="3333750"/>
+          <a:off x="10306685" y="476885"/>
+          <a:ext cx="2429510" cy="3409950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4798,7 +4798,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>179042</xdr:colOff>
+      <xdr:colOff>195608</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>75565</xdr:rowOff>
     </xdr:to>
@@ -4807,7 +4807,7 @@
         <xdr:cNvPr id="36" name="图片 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7DAE144-A6FC-40C0-B00B-56E6B71BEFFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBC181A4-D9B2-4F46-8C42-0067E1706910}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4823,8 +4823,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10001250" y="8261985"/>
-          <a:ext cx="2019935" cy="2771140"/>
+          <a:off x="9997440" y="8416925"/>
+          <a:ext cx="2019935" cy="2809240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4846,7 +4846,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>159579</xdr:colOff>
+      <xdr:colOff>170622</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>58420</xdr:rowOff>
     </xdr:to>
@@ -4855,7 +4855,7 @@
         <xdr:cNvPr id="37" name="图片 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F208FDEA-B80D-429B-B6AD-5F52F3ACCFCD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79C12A2-5E68-4D04-AA5C-DAB2E23E0D8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4871,8 +4871,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7896225" y="8270240"/>
-          <a:ext cx="1981835" cy="2745740"/>
+          <a:off x="7893685" y="8425180"/>
+          <a:ext cx="1980565" cy="2783840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4894,7 +4894,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>46549</xdr:colOff>
+      <xdr:colOff>50192</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>83185</xdr:rowOff>
     </xdr:to>
@@ -4903,7 +4903,7 @@
         <xdr:cNvPr id="38" name="图片 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26CB65A3-B79A-4BD4-954B-3F90D2396149}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEC8F2C8-68ED-4D85-BB05-C79C2D655E7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4919,8 +4919,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7982585" y="5518785"/>
-          <a:ext cx="2521585" cy="2664460"/>
+          <a:off x="7980045" y="5645785"/>
+          <a:ext cx="2520315" cy="2692400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10531,7 +10531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B55B08-176F-4427-8879-C97CFCF7CC05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98483FA1-48DB-4CD9-8DE8-EA2274A101F4}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -10541,14 +10541,14 @@
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" customWidth="1"/>
-    <col min="2" max="2" width="84.59765625" style="42" customWidth="1"/>
-    <col min="3" max="3" width="6.59765625" customWidth="1"/>
+    <col min="1" max="1" width="16.58203125" customWidth="1"/>
+    <col min="2" max="2" width="84.58203125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="6.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -10567,49 +10567,49 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="8"/>
     </row>
-    <row r="5" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="8"/>
     </row>
-    <row r="7" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="8"/>
     </row>
-    <row r="9" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="9"/>
     </row>
-    <row r="11" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="10"/>
     </row>
@@ -10619,17 +10619,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
     </row>
-    <row r="17" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="7" t="s">
         <v>10</v>
@@ -10646,62 +10646,62 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="16"/>
       <c r="C19" s="15"/>
     </row>
-    <row r="20" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="16"/>
       <c r="C20" s="15"/>
     </row>
-    <row r="21" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="16"/>
       <c r="C21" s="15"/>
     </row>
-    <row r="22" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="16"/>
       <c r="C22" s="15"/>
     </row>
-    <row r="23" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="16"/>
       <c r="C23" s="15"/>
     </row>
-    <row r="24" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="8"/>
       <c r="C24" s="15"/>
     </row>
-    <row r="25" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="8"/>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="8"/>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="8"/>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="8"/>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="8"/>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="9"/>
       <c r="C30" s="15"/>
@@ -10713,26 +10713,26 @@
       </c>
       <c r="C31" s="18"/>
     </row>
-    <row r="32" spans="1:3" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="10"/>
       <c r="C32" s="18"/>
     </row>
-    <row r="33" spans="1:3" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="18"/>
     </row>
-    <row r="34" spans="1:3" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="38" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="18"/>
     </row>
-    <row r="35" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
       <c r="C35" s="18"/>
@@ -10743,7 +10743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="20"/>
     </row>
@@ -10753,15 +10753,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="12"/>
     </row>
-    <row r="40" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="21"/>
     </row>
-    <row r="41" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>17</v>
       </c>
@@ -10769,111 +10769,111 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
       <c r="B43" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>
       <c r="B44" s="12"/>
     </row>
-    <row r="45" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="25"/>
     </row>
-    <row r="46" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
       <c r="B46" s="26"/>
     </row>
-    <row r="47" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24"/>
       <c r="B47" s="26"/>
     </row>
-    <row r="48" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
       <c r="B48" s="26"/>
     </row>
-    <row r="49" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="B49" s="26"/>
     </row>
-    <row r="50" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
       <c r="B50" s="26"/>
     </row>
-    <row r="51" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
       <c r="B51" s="26"/>
     </row>
-    <row r="52" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
       <c r="B52" s="26"/>
     </row>
-    <row r="53" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="26"/>
     </row>
-    <row r="54" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
       <c r="B54" s="26"/>
     </row>
-    <row r="55" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>
       <c r="B55" s="26"/>
     </row>
-    <row r="56" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>
       <c r="B56" s="26"/>
     </row>
-    <row r="57" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="26"/>
     </row>
-    <row r="58" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="26"/>
     </row>
-    <row r="59" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
       <c r="B59" s="26"/>
     </row>
-    <row r="60" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
       <c r="B60" s="26"/>
     </row>
-    <row r="61" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="B61" s="26"/>
     </row>
-    <row r="62" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
       <c r="B62" s="26"/>
     </row>
-    <row r="63" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
       <c r="B63" s="26"/>
     </row>
-    <row r="64" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
       <c r="B64" s="26"/>
     </row>
-    <row r="65" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="27"/>
       <c r="B65" s="28"/>
     </row>
-    <row r="66" spans="1:3" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
       <c r="B66" s="29"/>
     </row>
-    <row r="67" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
         <v>21</v>
       </c>
@@ -10881,187 +10881,187 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="24"/>
       <c r="B68" s="30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="24"/>
       <c r="B69" s="31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="24"/>
       <c r="B70" s="32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="24"/>
       <c r="B71" s="30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="24"/>
       <c r="B72" s="33"/>
     </row>
-    <row r="73" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="24"/>
       <c r="B73" s="34"/>
     </row>
-    <row r="74" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="24"/>
       <c r="B74" s="34"/>
     </row>
-    <row r="75" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="24"/>
       <c r="B75" s="34"/>
     </row>
-    <row r="76" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="24"/>
       <c r="B76" s="34"/>
     </row>
-    <row r="77" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="24"/>
       <c r="B77" s="34"/>
     </row>
-    <row r="78" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="24"/>
       <c r="B78" s="34"/>
     </row>
-    <row r="79" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="24"/>
       <c r="B79" s="34"/>
     </row>
-    <row r="80" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="24"/>
       <c r="B80" s="35"/>
       <c r="C80" s="15"/>
     </row>
-    <row r="81" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="24"/>
       <c r="B81" s="35"/>
       <c r="C81" s="15"/>
     </row>
-    <row r="82" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="24"/>
       <c r="B82" s="35"/>
       <c r="C82" s="15"/>
     </row>
-    <row r="83" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="24"/>
       <c r="B83" s="35"/>
       <c r="C83" s="15"/>
     </row>
-    <row r="84" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="24"/>
       <c r="B84" s="35"/>
       <c r="C84" s="15"/>
     </row>
-    <row r="85" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="24"/>
       <c r="B85" s="35"/>
       <c r="C85" s="15"/>
     </row>
-    <row r="86" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="24"/>
       <c r="B86" s="35"/>
       <c r="C86" s="15"/>
     </row>
-    <row r="87" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="24"/>
       <c r="B87" s="35"/>
       <c r="C87" s="15"/>
     </row>
-    <row r="88" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="24"/>
       <c r="B88" s="35"/>
       <c r="C88" s="15"/>
     </row>
-    <row r="89" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="24"/>
       <c r="B89" s="35"/>
       <c r="C89" s="15"/>
     </row>
-    <row r="90" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="24"/>
       <c r="B90" s="35"/>
       <c r="C90" s="15"/>
     </row>
-    <row r="91" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="24"/>
       <c r="B91" s="35"/>
       <c r="C91" s="15"/>
     </row>
-    <row r="92" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="24"/>
       <c r="B92" s="35"/>
       <c r="C92" s="15"/>
     </row>
-    <row r="93" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="24"/>
       <c r="B93" s="35"/>
       <c r="C93" s="15"/>
     </row>
-    <row r="94" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="24"/>
       <c r="B94" s="35"/>
       <c r="C94" s="15"/>
     </row>
-    <row r="95" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="24"/>
       <c r="B95" s="35"/>
       <c r="C95" s="15"/>
     </row>
-    <row r="96" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="24"/>
       <c r="B96" s="35"/>
       <c r="C96" s="15"/>
     </row>
-    <row r="97" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="24"/>
       <c r="B97" s="35"/>
       <c r="C97" s="15"/>
     </row>
-    <row r="98" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="24"/>
       <c r="B98" s="35"/>
       <c r="C98" s="15"/>
     </row>
-    <row r="99" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="24"/>
       <c r="B99" s="35"/>
       <c r="C99" s="15"/>
     </row>
-    <row r="100" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="24"/>
       <c r="B100" s="35"/>
       <c r="C100" s="15"/>
     </row>
-    <row r="101" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="24"/>
       <c r="B101" s="35"/>
       <c r="C101" s="15"/>
     </row>
-    <row r="102" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="24"/>
       <c r="B102" s="35"/>
       <c r="C102" s="15"/>
     </row>
-    <row r="103" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="27"/>
       <c r="B103" s="36"/>
       <c r="C103" s="15"/>
     </row>
-    <row r="104" spans="1:3" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
       <c r="B104" s="29"/>
     </row>
-    <row r="105" spans="1:3" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="37" t="s">
         <v>27</v>
       </c>
@@ -11069,7 +11069,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="38"/>
       <c r="B106" s="5" t="s">
         <v>29</v>
@@ -11085,7 +11085,7 @@
       <c r="A108" s="13"/>
       <c r="B108" s="29"/>
     </row>
-    <row r="109" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="39" t="s">
         <v>31</v>
       </c>
@@ -11093,125 +11093,125 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="41"/>
     </row>
-    <row r="114" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="41"/>
     </row>
-    <row r="115" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="41"/>
     </row>
-    <row r="116" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="41"/>
     </row>
-    <row r="117" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="41"/>
     </row>
-    <row r="118" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="41"/>
     </row>
-    <row r="119" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="41"/>
     </row>
-    <row r="120" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="41"/>
     </row>
-    <row r="121" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="41"/>
     </row>
-    <row r="122" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="41"/>
     </row>
-    <row r="123" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="41"/>
     </row>
-    <row r="124" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="41"/>
     </row>
-    <row r="125" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="41"/>
     </row>
-    <row r="126" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="41"/>
     </row>
-    <row r="127" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="41"/>
     </row>
-    <row r="128" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="41"/>
     </row>
-    <row r="129" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A67:A103"/>
@@ -11230,7 +11230,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D1" location="目录!A1" display="返回" xr:uid="{1EA92251-5DCD-4F0A-AFE0-4E40208B86F1}"/>
+    <hyperlink ref="D1" location="目录!A1" display="返回" xr:uid="{1A3DF4CE-C7CF-4E8B-9BA3-6A497BA835DD}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
